--- a/supplFiles/Suppl.File.5.DNAvar.xlsx
+++ b/supplFiles/Suppl.File.5.DNAvar.xlsx
@@ -1,21 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Shared\mtDNA\Manuscript\Supplements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FE8195-C3B1-4A56-8C4E-18033E4E2182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25328EB0-A24E-4225-BAA2-8581C59F2FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="15975" windowHeight="13215" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="mtDNA" sheetId="1" r:id="rId1"/>
+    <sheet name="cpDNA" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -32,6 +44,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>卢福浩-河南大学生物信息学:</t>
@@ -40,6 +53,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -55,6 +69,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>卢福浩-河南大学生物信息学:</t>
@@ -63,6 +78,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -76,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9338" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9637" uniqueCount="713">
   <si>
     <t>Position_in_alignment</t>
   </si>
@@ -1795,13 +1811,498 @@
   </si>
   <si>
     <t>trnW</t>
+  </si>
+  <si>
+    <t>Gene</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Positions</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bases</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>AABB</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAGG</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Triticum turgidum</t>
+  </si>
+  <si>
+    <t>NC_024814</t>
+  </si>
+  <si>
+    <t>NC_024764</t>
+  </si>
+  <si>
+    <t>NC_022135</t>
+  </si>
+  <si>
+    <t>atpA</t>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>atpB</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>AA[A/G]TA</t>
+  </si>
+  <si>
+    <t>518-520</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>GG[---/GGG]GG</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>---</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>GGG</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>atpE</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>atpF</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>atpH</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>atpI</t>
+  </si>
+  <si>
+    <t>AG[A/C]TA</t>
+  </si>
+  <si>
+    <t>ccsA</t>
+  </si>
+  <si>
+    <t>cemA</t>
+  </si>
+  <si>
+    <t>clpP</t>
+  </si>
+  <si>
+    <t>CC[C/G]GG</t>
+  </si>
+  <si>
+    <t>infA</t>
+  </si>
+  <si>
+    <t>matK</t>
+  </si>
+  <si>
+    <t>AA[C/T]GG</t>
+  </si>
+  <si>
+    <t>TT[A/G]CA</t>
+  </si>
+  <si>
+    <t>TT[A/C]TG</t>
+  </si>
+  <si>
+    <t>CT[C/G]AT</t>
+  </si>
+  <si>
+    <t>TG[A/G]TT</t>
+  </si>
+  <si>
+    <t>ndhA</t>
+  </si>
+  <si>
+    <t>AC[C/T]CT</t>
+  </si>
+  <si>
+    <t>TC[C/T]TT</t>
+  </si>
+  <si>
+    <t>nhdB</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>ndhC</t>
+  </si>
+  <si>
+    <t>ndhD</t>
+  </si>
+  <si>
+    <t>TT[A/G]GG</t>
+  </si>
+  <si>
+    <t>ndhE</t>
+  </si>
+  <si>
+    <t>ndhF</t>
+  </si>
+  <si>
+    <t>AG[C/T]GT</t>
+  </si>
+  <si>
+    <t>TC[A/G]GC</t>
+  </si>
+  <si>
+    <t>TT[C/G]TT</t>
+  </si>
+  <si>
+    <t>ndhG</t>
+  </si>
+  <si>
+    <t>ndhH</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>297-299</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>AG[CTA/TCT]TA</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CTA</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCT</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>301-302</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT[AT/TA]TA</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>TA</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>304-306</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>TT[--CC/AGGG]TA</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGGG</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>--CC</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>310-312</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>TA[ATT/GGG]AT</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATT</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>315-316</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT[-A/GT]TA</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>GT</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>-A</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>319-321</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>TA[CTT/GAA]TT</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>GAA</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CTT</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>323-324</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT[AC/TA]AG</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>AC</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>AG[C/T]TA</t>
+  </si>
+  <si>
+    <t>ndhI</t>
+  </si>
+  <si>
+    <t>ndhK</t>
+  </si>
+  <si>
+    <t>petA</t>
+  </si>
+  <si>
+    <t>AA[C/T]AA</t>
+  </si>
+  <si>
+    <t>petB</t>
+  </si>
+  <si>
+    <t>petD</t>
+  </si>
+  <si>
+    <t>petG</t>
+  </si>
+  <si>
+    <t>petL</t>
+  </si>
+  <si>
+    <t>petN</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>psaA</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC[C/T]TA</t>
+  </si>
+  <si>
+    <t>psaB</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>GC[C/G]GG</t>
+  </si>
+  <si>
+    <t>AC[A/C]TA</t>
+  </si>
+  <si>
+    <t>psaC</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>psaI</t>
+  </si>
+  <si>
+    <t>psaJ</t>
+  </si>
+  <si>
+    <t>psbA</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>psbC</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>psbD</t>
+  </si>
+  <si>
+    <t>TT[C/T]CA</t>
+  </si>
+  <si>
+    <t>psbE</t>
+  </si>
+  <si>
+    <t>psbF</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>psbH</t>
+  </si>
+  <si>
+    <t>psbI</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>psbJ</t>
+  </si>
+  <si>
+    <t>psbK</t>
+  </si>
+  <si>
+    <t>psbL</t>
+  </si>
+  <si>
+    <t>psbM</t>
+  </si>
+  <si>
+    <t>psbN</t>
+  </si>
+  <si>
+    <t>psbT</t>
+  </si>
+  <si>
+    <t>rbcL</t>
+  </si>
+  <si>
+    <t>TT[A/G]CG</t>
+  </si>
+  <si>
+    <t>rpl2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>multiple</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>rpl14</t>
+  </si>
+  <si>
+    <t>rpl20</t>
+  </si>
+  <si>
+    <t>rpl22</t>
+  </si>
+  <si>
+    <t>445-447</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CT[---/AAA]TA</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAA</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>rpl23</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-282</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>rpl32</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>rpl33</t>
+  </si>
+  <si>
+    <t>rpl36</t>
+  </si>
+  <si>
+    <t>rpoA</t>
+  </si>
+  <si>
+    <t>rpoB</t>
+  </si>
+  <si>
+    <t>AT[C/T]GA</t>
+  </si>
+  <si>
+    <t>rpoC1</t>
+  </si>
+  <si>
+    <t>CG[A/G]GG</t>
+  </si>
+  <si>
+    <t>rpoC2</t>
+  </si>
+  <si>
+    <t>TC[A/C]AA</t>
+  </si>
+  <si>
+    <t>CT[A/T]AT</t>
+  </si>
+  <si>
+    <t>CC[A/G]AA</t>
+  </si>
+  <si>
+    <t>GG[A/G]AT</t>
+  </si>
+  <si>
+    <t>rps8</t>
+  </si>
+  <si>
+    <t>GT[G/T]AA</t>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>rps11</t>
+  </si>
+  <si>
+    <t>SS=GG</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>BB=GG</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>sum</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1813,6 +2314,7 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1820,23 +2322,27 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1844,28 +2350,59 @@
       <sz val="11"/>
       <color rgb="FF808080"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1944,6 +2481,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1974,7 +2535,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2080,6 +2641,51 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" quotePrefix="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="15" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" quotePrefix="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2358,7 +2964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH338"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="W2" sqref="W2"/>
     </sheetView>
@@ -34310,6 +34916,1568 @@
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5884D15-250D-4C72-981A-C625B738A86F}">
+  <dimension ref="A1:H90"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A88" sqref="A4:A88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="20.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="38" t="s">
+        <v>573</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>574</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>575</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>576</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>577</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>578</v>
+      </c>
+      <c r="G1" s="38" t="s">
+        <v>710</v>
+      </c>
+      <c r="H1" s="38" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="39" t="s">
+        <v>579</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="40" t="s">
+        <v>580</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>581</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>582</v>
+      </c>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>583</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>584</v>
+      </c>
+      <c r="C4" s="41"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>585</v>
+      </c>
+      <c r="B5">
+        <v>56</v>
+      </c>
+      <c r="C5" t="s">
+        <v>586</v>
+      </c>
+      <c r="D5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>587</v>
+      </c>
+      <c r="C6" t="s">
+        <v>588</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>589</v>
+      </c>
+      <c r="E6" s="44" t="s">
+        <v>589</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>590</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>591</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>584</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>592</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>584</v>
+      </c>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>593</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>584</v>
+      </c>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>594</v>
+      </c>
+      <c r="B10">
+        <v>477</v>
+      </c>
+      <c r="C10" t="s">
+        <v>595</v>
+      </c>
+      <c r="D10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>596</v>
+      </c>
+      <c r="B11">
+        <v>858</v>
+      </c>
+      <c r="C11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>597</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>584</v>
+      </c>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>598</v>
+      </c>
+      <c r="B13">
+        <v>210</v>
+      </c>
+      <c r="C13" t="s">
+        <v>599</v>
+      </c>
+      <c r="D13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>600</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>584</v>
+      </c>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>601</v>
+      </c>
+      <c r="B15">
+        <v>114</v>
+      </c>
+      <c r="C15" t="s">
+        <v>602</v>
+      </c>
+      <c r="D15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B16">
+        <v>537</v>
+      </c>
+      <c r="C16" t="s">
+        <v>603</v>
+      </c>
+      <c r="D16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B17">
+        <v>927</v>
+      </c>
+      <c r="C17" t="s">
+        <v>604</v>
+      </c>
+      <c r="D17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B18">
+        <v>1128</v>
+      </c>
+      <c r="C18" t="s">
+        <v>605</v>
+      </c>
+      <c r="D18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B19">
+        <v>1377</v>
+      </c>
+      <c r="C19" t="s">
+        <v>606</v>
+      </c>
+      <c r="D19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>607</v>
+      </c>
+      <c r="B20">
+        <v>102</v>
+      </c>
+      <c r="C20" t="s">
+        <v>608</v>
+      </c>
+      <c r="D20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B21">
+        <v>607</v>
+      </c>
+      <c r="C21" t="s">
+        <v>129</v>
+      </c>
+      <c r="D21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B22">
+        <v>858</v>
+      </c>
+      <c r="C22" t="s">
+        <v>609</v>
+      </c>
+      <c r="D22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>610</v>
+      </c>
+      <c r="B23" s="41" t="s">
+        <v>584</v>
+      </c>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>611</v>
+      </c>
+      <c r="B24" s="41" t="s">
+        <v>584</v>
+      </c>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>612</v>
+      </c>
+      <c r="B25">
+        <v>240</v>
+      </c>
+      <c r="C25" t="s">
+        <v>613</v>
+      </c>
+      <c r="D25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>614</v>
+      </c>
+      <c r="B26" s="41" t="s">
+        <v>584</v>
+      </c>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>615</v>
+      </c>
+      <c r="B27">
+        <v>132</v>
+      </c>
+      <c r="C27" t="s">
+        <v>616</v>
+      </c>
+      <c r="D27" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B28">
+        <v>783</v>
+      </c>
+      <c r="C28" t="s">
+        <v>617</v>
+      </c>
+      <c r="D28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="F28" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B29">
+        <v>909</v>
+      </c>
+      <c r="C29" t="s">
+        <v>618</v>
+      </c>
+      <c r="D29" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F29" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>619</v>
+      </c>
+      <c r="B30" s="41" t="s">
+        <v>584</v>
+      </c>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>620</v>
+      </c>
+      <c r="B31" t="s">
+        <v>621</v>
+      </c>
+      <c r="C31" t="s">
+        <v>622</v>
+      </c>
+      <c r="D31" t="s">
+        <v>623</v>
+      </c>
+      <c r="E31" t="s">
+        <v>623</v>
+      </c>
+      <c r="F31" s="45" t="s">
+        <v>624</v>
+      </c>
+      <c r="H31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
+        <v>625</v>
+      </c>
+      <c r="C32" t="s">
+        <v>626</v>
+      </c>
+      <c r="D32" t="s">
+        <v>627</v>
+      </c>
+      <c r="E32" t="s">
+        <v>627</v>
+      </c>
+      <c r="F32" s="45" t="s">
+        <v>628</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
+        <v>629</v>
+      </c>
+      <c r="C33" t="s">
+        <v>630</v>
+      </c>
+      <c r="D33" t="s">
+        <v>631</v>
+      </c>
+      <c r="E33" t="s">
+        <v>631</v>
+      </c>
+      <c r="F33" s="47" t="s">
+        <v>632</v>
+      </c>
+      <c r="H33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
+        <v>633</v>
+      </c>
+      <c r="C34" t="s">
+        <v>634</v>
+      </c>
+      <c r="D34" t="s">
+        <v>635</v>
+      </c>
+      <c r="E34" t="s">
+        <v>635</v>
+      </c>
+      <c r="F34" s="45" t="s">
+        <v>590</v>
+      </c>
+      <c r="H34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B35" t="s">
+        <v>636</v>
+      </c>
+      <c r="C35" t="s">
+        <v>637</v>
+      </c>
+      <c r="D35" t="s">
+        <v>638</v>
+      </c>
+      <c r="E35" t="s">
+        <v>638</v>
+      </c>
+      <c r="F35" s="47" t="s">
+        <v>639</v>
+      </c>
+      <c r="H35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B36" t="s">
+        <v>640</v>
+      </c>
+      <c r="C36" t="s">
+        <v>641</v>
+      </c>
+      <c r="D36" t="s">
+        <v>642</v>
+      </c>
+      <c r="E36" t="s">
+        <v>642</v>
+      </c>
+      <c r="F36" s="45" t="s">
+        <v>643</v>
+      </c>
+      <c r="H36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
+        <v>644</v>
+      </c>
+      <c r="C37" t="s">
+        <v>645</v>
+      </c>
+      <c r="D37" t="s">
+        <v>628</v>
+      </c>
+      <c r="E37" t="s">
+        <v>628</v>
+      </c>
+      <c r="F37" s="45" t="s">
+        <v>646</v>
+      </c>
+      <c r="H37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B38">
+        <v>1102</v>
+      </c>
+      <c r="C38" t="s">
+        <v>647</v>
+      </c>
+      <c r="D38" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" t="s">
+        <v>81</v>
+      </c>
+      <c r="F38" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>648</v>
+      </c>
+      <c r="B39" s="41" t="s">
+        <v>584</v>
+      </c>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>649</v>
+      </c>
+      <c r="B40" s="41" t="s">
+        <v>584</v>
+      </c>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>650</v>
+      </c>
+      <c r="B41">
+        <v>606</v>
+      </c>
+      <c r="C41" t="s">
+        <v>651</v>
+      </c>
+      <c r="D41" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="F41" t="s">
+        <v>81</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>652</v>
+      </c>
+      <c r="B42" s="41" t="s">
+        <v>584</v>
+      </c>
+      <c r="C42" s="41"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="41"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>653</v>
+      </c>
+      <c r="B43" s="41" t="s">
+        <v>584</v>
+      </c>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="41"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>654</v>
+      </c>
+      <c r="B44" s="41" t="s">
+        <v>584</v>
+      </c>
+      <c r="C44" s="41"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="41"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>655</v>
+      </c>
+      <c r="B45" s="41" t="s">
+        <v>584</v>
+      </c>
+      <c r="C45" s="41"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="41"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>656</v>
+      </c>
+      <c r="B46" s="41" t="s">
+        <v>584</v>
+      </c>
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="41"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>657</v>
+      </c>
+      <c r="B47">
+        <v>692</v>
+      </c>
+      <c r="C47" t="s">
+        <v>658</v>
+      </c>
+      <c r="D47" t="s">
+        <v>81</v>
+      </c>
+      <c r="E47" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="F47" t="s">
+        <v>81</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>659</v>
+      </c>
+      <c r="B48">
+        <v>750</v>
+      </c>
+      <c r="C48" t="s">
+        <v>660</v>
+      </c>
+      <c r="D48" t="s">
+        <v>81</v>
+      </c>
+      <c r="E48" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="F48" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B49">
+        <v>1413</v>
+      </c>
+      <c r="C49" t="s">
+        <v>661</v>
+      </c>
+      <c r="D49" t="s">
+        <v>77</v>
+      </c>
+      <c r="E49" t="s">
+        <v>77</v>
+      </c>
+      <c r="F49" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>662</v>
+      </c>
+      <c r="B50" s="41" t="s">
+        <v>584</v>
+      </c>
+      <c r="C50" s="41"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="41"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>663</v>
+      </c>
+      <c r="B51" s="41" t="s">
+        <v>584</v>
+      </c>
+      <c r="C51" s="41"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="41"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>664</v>
+      </c>
+      <c r="B52" s="41" t="s">
+        <v>584</v>
+      </c>
+      <c r="C52" s="41"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="41"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>665</v>
+      </c>
+      <c r="B53" s="41" t="s">
+        <v>584</v>
+      </c>
+      <c r="C53" s="41"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="41"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>666</v>
+      </c>
+      <c r="B54">
+        <v>1044</v>
+      </c>
+      <c r="C54" t="s">
+        <v>123</v>
+      </c>
+      <c r="D54" t="s">
+        <v>78</v>
+      </c>
+      <c r="E54" t="s">
+        <v>78</v>
+      </c>
+      <c r="F54" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>667</v>
+      </c>
+      <c r="B55">
+        <v>558</v>
+      </c>
+      <c r="C55" t="s">
+        <v>668</v>
+      </c>
+      <c r="D55" t="s">
+        <v>84</v>
+      </c>
+      <c r="E55" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="F55" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>669</v>
+      </c>
+      <c r="B56" s="41" t="s">
+        <v>584</v>
+      </c>
+      <c r="C56" s="41"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="41"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>670</v>
+      </c>
+      <c r="B57" s="41" t="s">
+        <v>584</v>
+      </c>
+      <c r="C57" s="41"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="41"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>671</v>
+      </c>
+      <c r="B58" s="41" t="s">
+        <v>584</v>
+      </c>
+      <c r="C58" s="41"/>
+      <c r="D58" s="41"/>
+      <c r="E58" s="41"/>
+      <c r="F58" s="41"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>672</v>
+      </c>
+      <c r="B59" s="41" t="s">
+        <v>584</v>
+      </c>
+      <c r="C59" s="41"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="41"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>673</v>
+      </c>
+      <c r="B60" s="41" t="s">
+        <v>584</v>
+      </c>
+      <c r="C60" s="41"/>
+      <c r="D60" s="41"/>
+      <c r="E60" s="41"/>
+      <c r="F60" s="41"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>674</v>
+      </c>
+      <c r="B61" s="41" t="s">
+        <v>584</v>
+      </c>
+      <c r="C61" s="41"/>
+      <c r="D61" s="41"/>
+      <c r="E61" s="41"/>
+      <c r="F61" s="41"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>675</v>
+      </c>
+      <c r="B62" s="41" t="s">
+        <v>584</v>
+      </c>
+      <c r="C62" s="41"/>
+      <c r="D62" s="41"/>
+      <c r="E62" s="41"/>
+      <c r="F62" s="41"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>676</v>
+      </c>
+      <c r="B63" s="41" t="s">
+        <v>584</v>
+      </c>
+      <c r="C63" s="41"/>
+      <c r="D63" s="41"/>
+      <c r="E63" s="41"/>
+      <c r="F63" s="41"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>677</v>
+      </c>
+      <c r="B64" s="41" t="s">
+        <v>584</v>
+      </c>
+      <c r="C64" s="41"/>
+      <c r="D64" s="41"/>
+      <c r="E64" s="41"/>
+      <c r="F64" s="41"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>678</v>
+      </c>
+      <c r="B65" s="41" t="s">
+        <v>584</v>
+      </c>
+      <c r="C65" s="41"/>
+      <c r="D65" s="41"/>
+      <c r="E65" s="41"/>
+      <c r="F65" s="41"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>679</v>
+      </c>
+      <c r="B66">
+        <v>1047</v>
+      </c>
+      <c r="C66" t="s">
+        <v>680</v>
+      </c>
+      <c r="D66" t="s">
+        <v>78</v>
+      </c>
+      <c r="E66" t="s">
+        <v>78</v>
+      </c>
+      <c r="F66" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>681</v>
+      </c>
+      <c r="B67" s="41" t="s">
+        <v>584</v>
+      </c>
+      <c r="C67" s="41"/>
+      <c r="D67" s="48"/>
+      <c r="E67" s="48"/>
+      <c r="F67" s="49"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>684</v>
+      </c>
+      <c r="B68" s="41" t="s">
+        <v>584</v>
+      </c>
+      <c r="C68" s="41"/>
+      <c r="D68" s="41"/>
+      <c r="E68" s="41"/>
+      <c r="F68" s="41"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>404</v>
+      </c>
+      <c r="B69" s="41" t="s">
+        <v>584</v>
+      </c>
+      <c r="C69" s="41"/>
+      <c r="D69" s="41"/>
+      <c r="E69" s="41"/>
+      <c r="F69" s="41"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>685</v>
+      </c>
+      <c r="B70" s="41" t="s">
+        <v>584</v>
+      </c>
+      <c r="C70" s="41"/>
+      <c r="D70" s="41"/>
+      <c r="E70" s="41"/>
+      <c r="F70" s="41"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>686</v>
+      </c>
+      <c r="B71" t="s">
+        <v>687</v>
+      </c>
+      <c r="C71" t="s">
+        <v>688</v>
+      </c>
+      <c r="D71" s="44" t="s">
+        <v>589</v>
+      </c>
+      <c r="E71" s="43" t="s">
+        <v>689</v>
+      </c>
+      <c r="F71" s="43" t="s">
+        <v>689</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>690</v>
+      </c>
+      <c r="B72" t="s">
+        <v>691</v>
+      </c>
+      <c r="C72" t="s">
+        <v>682</v>
+      </c>
+      <c r="D72" s="50" t="s">
+        <v>683</v>
+      </c>
+      <c r="E72" s="44" t="s">
+        <v>683</v>
+      </c>
+      <c r="F72" s="51" t="s">
+        <v>692</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>693</v>
+      </c>
+      <c r="B73" s="41" t="s">
+        <v>584</v>
+      </c>
+      <c r="C73" s="41"/>
+      <c r="D73" s="49"/>
+      <c r="E73" s="49"/>
+      <c r="F73" s="41"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>694</v>
+      </c>
+      <c r="B74" s="41" t="s">
+        <v>584</v>
+      </c>
+      <c r="C74" s="41"/>
+      <c r="D74" s="41"/>
+      <c r="E74" s="41"/>
+      <c r="F74" s="41"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>695</v>
+      </c>
+      <c r="B75" s="41" t="s">
+        <v>584</v>
+      </c>
+      <c r="C75" s="41"/>
+      <c r="D75" s="41"/>
+      <c r="E75" s="41"/>
+      <c r="F75" s="41"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>696</v>
+      </c>
+      <c r="B76" s="41" t="s">
+        <v>584</v>
+      </c>
+      <c r="C76" s="41"/>
+      <c r="D76" s="41"/>
+      <c r="E76" s="41"/>
+      <c r="F76" s="41"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>697</v>
+      </c>
+      <c r="B77">
+        <v>1284</v>
+      </c>
+      <c r="C77" t="s">
+        <v>698</v>
+      </c>
+      <c r="D77" t="s">
+        <v>81</v>
+      </c>
+      <c r="E77" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F77" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>699</v>
+      </c>
+      <c r="B78">
+        <v>1644</v>
+      </c>
+      <c r="C78" t="s">
+        <v>700</v>
+      </c>
+      <c r="D78" t="s">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>77</v>
+      </c>
+      <c r="F78" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>701</v>
+      </c>
+      <c r="B79">
+        <v>351</v>
+      </c>
+      <c r="C79" t="s">
+        <v>702</v>
+      </c>
+      <c r="D79" t="s">
+        <v>81</v>
+      </c>
+      <c r="E79" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="F79" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B80">
+        <v>1695</v>
+      </c>
+      <c r="C80" t="s">
+        <v>703</v>
+      </c>
+      <c r="D80" t="s">
+        <v>77</v>
+      </c>
+      <c r="E80" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F80" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B81">
+        <v>3789</v>
+      </c>
+      <c r="C81" t="s">
+        <v>704</v>
+      </c>
+      <c r="D81" t="s">
+        <v>78</v>
+      </c>
+      <c r="E81" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="F81" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
+        <v>419</v>
+      </c>
+      <c r="B82">
+        <v>552</v>
+      </c>
+      <c r="C82" t="s">
+        <v>705</v>
+      </c>
+      <c r="D82" t="s">
+        <v>78</v>
+      </c>
+      <c r="E82" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="F82" t="s">
+        <v>78</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
+        <v>442</v>
+      </c>
+      <c r="B83" s="41" t="s">
+        <v>584</v>
+      </c>
+      <c r="C83" s="41"/>
+      <c r="D83" s="41"/>
+      <c r="E83" s="41"/>
+      <c r="F83" s="41"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
+        <v>463</v>
+      </c>
+      <c r="B84" s="41" t="s">
+        <v>584</v>
+      </c>
+      <c r="C84" s="41"/>
+      <c r="D84" s="41"/>
+      <c r="E84" s="41"/>
+      <c r="F84" s="41"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
+        <v>558</v>
+      </c>
+      <c r="B85" s="41" t="s">
+        <v>584</v>
+      </c>
+      <c r="C85" s="41"/>
+      <c r="D85" s="41"/>
+      <c r="E85" s="41"/>
+      <c r="F85" s="41"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
+        <v>706</v>
+      </c>
+      <c r="B86">
+        <v>108</v>
+      </c>
+      <c r="C86" t="s">
+        <v>707</v>
+      </c>
+      <c r="D86" t="s">
+        <v>78</v>
+      </c>
+      <c r="E86" s="43" t="s">
+        <v>708</v>
+      </c>
+      <c r="F86" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
+        <v>709</v>
+      </c>
+      <c r="B87" s="41" t="s">
+        <v>584</v>
+      </c>
+      <c r="C87" s="41"/>
+      <c r="D87" s="41"/>
+      <c r="E87" s="41"/>
+      <c r="F87" s="41"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
+        <v>559</v>
+      </c>
+      <c r="B88" s="41" t="s">
+        <v>584</v>
+      </c>
+      <c r="C88" s="41"/>
+      <c r="D88" s="41"/>
+      <c r="E88" s="41"/>
+      <c r="F88" s="41"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A90" s="38" t="s">
+        <v>712</v>
+      </c>
+      <c r="B90" s="38"/>
+      <c r="C90" s="38"/>
+      <c r="D90" s="38"/>
+      <c r="E90" s="38"/>
+      <c r="F90" s="38"/>
+      <c r="G90" s="38">
+        <f>COUNTIF(G4:G88,"&gt;=1")</f>
+        <v>21</v>
+      </c>
+      <c r="H90" s="38">
+        <f t="shared" ref="H90" si="0">COUNTIF(H4:H88,"&gt;=1")</f>
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
